--- a/cleaned last season/lastseasonallrounder_smat.xlsx
+++ b/cleaned last season/lastseasonallrounder_smat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/Dataset_Final/lastseason/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/cleaned last season/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E97FE55-9865-394E-A698-774734387013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3FBE2E-EE0B-3449-999C-FAB43005CD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="7760" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Player</t>
   </si>
@@ -134,13 +134,22 @@
   </si>
   <si>
     <t>T Vijay</t>
+  </si>
+  <si>
+    <t>J Overton</t>
+  </si>
+  <si>
+    <t>AM Hardie</t>
+  </si>
+  <si>
+    <t>PHKD Mendis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +162,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,13 +206,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,35 +522,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
@@ -1442,6 +1466,255 @@
       </c>
       <c r="AA11" s="2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4">
+        <v>191</v>
+      </c>
+      <c r="F12" s="4">
+        <v>45</v>
+      </c>
+      <c r="G12" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="H12" s="4">
+        <v>122</v>
+      </c>
+      <c r="I12" s="4">
+        <v>156.55000000000001</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>11</v>
+      </c>
+      <c r="N12" s="4">
+        <v>10</v>
+      </c>
+      <c r="O12" s="4">
+        <v>9</v>
+      </c>
+      <c r="P12" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>31.4</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>305</v>
+      </c>
+      <c r="T12" s="4">
+        <v>11</v>
+      </c>
+      <c r="U12" s="4">
+        <v>27.72</v>
+      </c>
+      <c r="V12" s="4">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="W12" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>120</v>
+      </c>
+      <c r="F13" s="4">
+        <v>34</v>
+      </c>
+      <c r="G13" s="4">
+        <v>17.14</v>
+      </c>
+      <c r="H13" s="4">
+        <v>113</v>
+      </c>
+      <c r="I13" s="4">
+        <v>106.19</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <v>8</v>
+      </c>
+      <c r="N13" s="4">
+        <v>4</v>
+      </c>
+      <c r="O13" s="4">
+        <v>7</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>2</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>14</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>100</v>
+      </c>
+      <c r="V13" s="4">
+        <v>7</v>
+      </c>
+      <c r="W13" s="3">
+        <v>100</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>286</v>
+      </c>
+      <c r="F14" s="4">
+        <v>65</v>
+      </c>
+      <c r="G14" s="4">
+        <v>40.85</v>
+      </c>
+      <c r="H14" s="4">
+        <v>182</v>
+      </c>
+      <c r="I14" s="4">
+        <v>157.13999999999999</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>3</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>22</v>
+      </c>
+      <c r="N14" s="4">
+        <v>15</v>
+      </c>
+      <c r="O14" s="4">
+        <v>10</v>
+      </c>
+      <c r="P14" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>14</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>141</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>100</v>
+      </c>
+      <c r="V14" s="4">
+        <v>10.07</v>
+      </c>
+      <c r="W14" s="3">
+        <v>100</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
